--- a/Pay_slip_excel.xlsx
+++ b/Pay_slip_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t xml:space="preserve">Pay Slip Number </t>
   </si>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -101,32 +107,32 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -436,7 +442,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -478,7 +484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -504,7 +510,7 @@
         <v>498.45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -530,7 +536,7 @@
         <v>499.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -556,7 +562,7 @@
         <v>499.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -582,7 +588,7 @@
         <v>498.45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -608,7 +614,7 @@
         <v>499.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -634,7 +640,7 @@
         <v>1008.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -660,7 +666,7 @@
         <v>999.02</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -686,7 +692,7 @@
         <v>2016.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -712,7 +718,7 @@
         <v>2028.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -738,7 +744,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -764,7 +770,7 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -813,6 +819,84 @@
         <v>501.78</v>
       </c>
       <c r="H14" s="7">
+        <v>1151.78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45488</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1400</v>
+      </c>
+      <c r="E15" s="7">
+        <v>248.22</v>
+      </c>
+      <c r="F15" s="5">
+        <v>650</v>
+      </c>
+      <c r="G15" s="7">
+        <v>501.78</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1151.78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45505</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1400</v>
+      </c>
+      <c r="E16" s="7">
+        <v>248.22</v>
+      </c>
+      <c r="F16" s="5">
+        <v>650</v>
+      </c>
+      <c r="G16" s="7">
+        <v>501.78</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1151.78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45519</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="7">
+        <v>248.22</v>
+      </c>
+      <c r="F17" s="5">
+        <v>650</v>
+      </c>
+      <c r="G17" s="7">
+        <v>501.78</v>
+      </c>
+      <c r="H17" s="7">
         <v>1151.78</v>
       </c>
     </row>

--- a/Pay_slip_excel.xlsx
+++ b/Pay_slip_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t xml:space="preserve">Pay Slip Number </t>
   </si>
@@ -57,19 +57,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -105,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -117,15 +111,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -442,23 +427,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,418 +470,444 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="2">
         <v>45199</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="1">
         <v>600</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <v>101.55</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>498.45</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>498.45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="2">
         <v>45208</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <v>600</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>100.49</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>499.51</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>499.51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>45215</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <v>600</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>100.49</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
         <v>499.51</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>499.51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>45225</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>600</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>101.55</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>498.45</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>498.45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>45231</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>600</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>100.49</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>499.51</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>499.51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="2">
         <v>45246</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>1200</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>191.62</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>1008.38</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>1008.38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="2">
         <v>45261</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <v>1200</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>200.98</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <v>999.02</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>999.02</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="2">
         <v>45290</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="1">
         <v>2400</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>383.25</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <v>2016.75</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>2016.75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="2">
         <v>45322</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>2400</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>371.94</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>2028.06</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>2028.06</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
         <v>45422</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="1">
         <v>600</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="1">
         <v>100</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <v>500</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="1">
         <v>500</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="2">
         <v>45443</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="1">
         <v>1400</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>248.22</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <v>651.78</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="1">
         <v>500</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>1151.78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="2">
         <v>45458</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="1">
         <v>1400</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <v>248.22</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="1">
         <v>650</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="4">
         <v>501.78</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="2">
         <v>45474</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="1">
         <v>1400</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="4">
         <v>248.22</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="1">
         <v>650</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4">
         <v>501.78</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="2">
         <v>45488</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="1">
         <v>1400</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>248.22</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="1">
         <v>650</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <v>501.78</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
         <v>45505</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="1">
         <v>1400</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="4">
         <v>248.22</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="1">
         <v>650</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="4">
         <v>501.78</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
         <v>45519</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="1">
         <v>1400</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="4">
         <v>248.22</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="1">
         <v>650</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>501.78</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
+        <v>1151.78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45536</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E18" s="4">
+        <v>248.22</v>
+      </c>
+      <c r="F18" s="1">
+        <v>650</v>
+      </c>
+      <c r="G18" s="4">
+        <v>501.78</v>
+      </c>
+      <c r="H18" s="4">
         <v>1151.78</v>
       </c>
     </row>

--- a/Pay_slip_excel.xlsx
+++ b/Pay_slip_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t xml:space="preserve">Pay Slip Number </t>
   </si>
@@ -427,7 +427,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -859,7 +859,7 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -885,7 +885,7 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -908,6 +908,32 @@
         <v>501.78</v>
       </c>
       <c r="H18" s="4">
+        <v>1151.78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45550</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E19" s="4">
+        <v>248.22</v>
+      </c>
+      <c r="F19" s="1">
+        <v>650</v>
+      </c>
+      <c r="G19" s="4">
+        <v>501.78</v>
+      </c>
+      <c r="H19" s="4">
         <v>1151.78</v>
       </c>
     </row>

--- a/Pay_slip_excel.xlsx
+++ b/Pay_slip_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t xml:space="preserve">Pay Slip Number </t>
   </si>
@@ -427,7 +427,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -885,7 +885,7 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -911,9 +911,9 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>45550</v>
@@ -934,6 +934,32 @@
         <v>501.78</v>
       </c>
       <c r="H19" s="4">
+        <v>1151.78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45566</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="4">
+        <v>248.22</v>
+      </c>
+      <c r="F20" s="1">
+        <v>650</v>
+      </c>
+      <c r="G20" s="4">
+        <v>501.78</v>
+      </c>
+      <c r="H20" s="4">
         <v>1151.78</v>
       </c>
     </row>

--- a/Pay_slip_excel.xlsx
+++ b/Pay_slip_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t xml:space="preserve">Pay Slip Number </t>
   </si>
@@ -427,7 +427,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -911,7 +911,7 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -937,7 +937,7 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -960,6 +960,32 @@
         <v>501.78</v>
       </c>
       <c r="H20" s="4">
+        <v>1151.78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45580</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="4">
+        <v>248.22</v>
+      </c>
+      <c r="F21" s="1">
+        <v>650</v>
+      </c>
+      <c r="G21" s="4">
+        <v>501.78</v>
+      </c>
+      <c r="H21" s="4">
         <v>1151.78</v>
       </c>
     </row>

--- a/Pay_slip_excel.xlsx
+++ b/Pay_slip_excel.xlsx
@@ -965,7 +965,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>45580</v>

--- a/Pay_slip_excel.xlsx
+++ b/Pay_slip_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t xml:space="preserve">Pay Slip Number </t>
   </si>
@@ -427,7 +427,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -937,7 +937,7 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -963,7 +963,7 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -986,6 +986,32 @@
         <v>501.78</v>
       </c>
       <c r="H21" s="4">
+        <v>1151.78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45597</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="4">
+        <v>248.22</v>
+      </c>
+      <c r="F22" s="1">
+        <v>650</v>
+      </c>
+      <c r="G22" s="4">
+        <v>501.78</v>
+      </c>
+      <c r="H22" s="4">
         <v>1151.78</v>
       </c>
     </row>

--- a/Pay_slip_excel.xlsx
+++ b/Pay_slip_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t xml:space="preserve">Pay Slip Number </t>
   </si>
@@ -99,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -111,6 +111,15 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -427,20 +436,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -963,7 +972,7 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -989,7 +998,7 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1012,6 +1021,32 @@
         <v>501.78</v>
       </c>
       <c r="H22" s="4">
+        <v>1151.78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45611</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="7">
+        <v>248.22</v>
+      </c>
+      <c r="F23" s="5">
+        <v>650</v>
+      </c>
+      <c r="G23" s="7">
+        <v>501.78</v>
+      </c>
+      <c r="H23" s="7">
         <v>1151.78</v>
       </c>
     </row>

--- a/Pay_slip_excel.xlsx
+++ b/Pay_slip_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t xml:space="preserve">Pay Slip Number </t>
   </si>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -113,13 +119,13 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -436,7 +442,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -720,7 +726,7 @@
         <v>45422</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>600</v>
@@ -998,7 +1004,7 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1024,9 +1030,9 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>45611</v>
@@ -1047,6 +1053,32 @@
         <v>501.78</v>
       </c>
       <c r="H23" s="7">
+        <v>1151.78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="5">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45627</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="7">
+        <v>248.22</v>
+      </c>
+      <c r="F24" s="5">
+        <v>650</v>
+      </c>
+      <c r="G24" s="7">
+        <v>501.78</v>
+      </c>
+      <c r="H24" s="7">
         <v>1151.78</v>
       </c>
     </row>

--- a/Pay_slip_excel.xlsx
+++ b/Pay_slip_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t xml:space="preserve">Pay Slip Number </t>
   </si>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,12 +68,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -105,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -117,15 +111,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -442,20 +427,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1030,56 +1015,108 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="2">
         <v>45611</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="5">
-        <v>1400</v>
-      </c>
-      <c r="E23" s="7">
-        <v>248.22</v>
-      </c>
-      <c r="F23" s="5">
-        <v>650</v>
-      </c>
-      <c r="G23" s="7">
-        <v>501.78</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="D23" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="4">
+        <v>248.22</v>
+      </c>
+      <c r="F23" s="1">
+        <v>650</v>
+      </c>
+      <c r="G23" s="4">
+        <v>501.78</v>
+      </c>
+      <c r="H23" s="4">
         <v>1151.78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="5">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
         <v>45627</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="5">
-        <v>1400</v>
-      </c>
-      <c r="E24" s="7">
-        <v>248.22</v>
-      </c>
-      <c r="F24" s="5">
-        <v>650</v>
-      </c>
-      <c r="G24" s="7">
-        <v>501.78</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1151.78</v>
+      <c r="D24" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="4">
+        <v>248.22</v>
+      </c>
+      <c r="F24" s="1">
+        <v>650</v>
+      </c>
+      <c r="G24" s="4">
+        <v>501.78</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1151.78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E25" s="4">
+        <v>248.22</v>
+      </c>
+      <c r="F25" s="1">
+        <v>650</v>
+      </c>
+      <c r="G25" s="4">
+        <v>501.78</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1151.78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45658</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2800</v>
+      </c>
+      <c r="E26" s="4">
+        <v>497.04</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1002.96</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2302.96</v>
       </c>
     </row>
   </sheetData>

--- a/Pay_slip_excel.xlsx
+++ b/Pay_slip_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t xml:space="preserve">Pay Slip Number </t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Monthly</t>
+  </si>
+  <si>
+    <t>monthly</t>
   </si>
 </sst>
 </file>
@@ -99,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -111,6 +114,15 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -427,20 +439,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1093,29 +1105,55 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="6">
         <v>45658</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5">
         <v>2800</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="7">
         <v>497.04</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="5">
         <v>1300</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="7">
         <v>1002.96</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="7">
+        <v>2302.96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45689</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2800</v>
+      </c>
+      <c r="E27" s="4">
+        <v>497.04</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1002.96</v>
+      </c>
+      <c r="H27" s="4">
         <v>2302.96</v>
       </c>
     </row>

--- a/Pay_slip_excel.xlsx
+++ b/Pay_slip_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t xml:space="preserve">Pay Slip Number </t>
   </si>
@@ -60,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +71,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -102,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -114,6 +120,15 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -439,20 +454,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="19.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1131,29 +1146,81 @@
         <v>2302.96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="9">
         <v>45689</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="8">
         <v>2800</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="10">
         <v>497.04</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="8">
         <v>1300</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="10">
         <v>1002.96</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="10">
+        <v>2302.96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45717</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2800</v>
+      </c>
+      <c r="E28" s="4">
+        <v>497.04</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1002.96</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2302.96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45748</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2800</v>
+      </c>
+      <c r="E29" s="4">
+        <v>497.04</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1002.96</v>
+      </c>
+      <c r="H29" s="4">
         <v>2302.96</v>
       </c>
     </row>
